--- a/output/results/pressure_calculation/pressure_calculation_results.xlsx
+++ b/output/results/pressure_calculation/pressure_calculation_results.xlsx
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.150912684275</v>
+        <v>225.4979637236889</v>
       </c>
       <c r="C2" t="n">
-        <v>214.7942967004851</v>
+        <v>192.9599402317299</v>
       </c>
       <c r="D2" t="n">
-        <v>18.35661598378988</v>
+        <v>32.538023491959</v>
       </c>
       <c r="E2" t="n">
-        <v>218.150912684275</v>
+        <v>210.4979637236889</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>206.1214456501081</v>
+        <v>232.2877678366567</v>
       </c>
       <c r="C3" t="n">
-        <v>199.9686495379782</v>
+        <v>229.6463687017024</v>
       </c>
       <c r="D3" t="n">
-        <v>6.152796112129835</v>
+        <v>2.641399134954241</v>
       </c>
       <c r="E3" t="n">
-        <v>199.9686495379782</v>
+        <v>229.6463687017024</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.5714010731289</v>
+        <v>200.8082197568496</v>
       </c>
       <c r="C4" t="n">
-        <v>195.7009860778316</v>
+        <v>208.2751646997562</v>
       </c>
       <c r="D4" t="n">
-        <v>33.87041499529732</v>
+        <v>-7.46694494290665</v>
       </c>
       <c r="E4" t="n">
-        <v>214.5714010731289</v>
+        <v>208.2751646997562</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.4664540411582</v>
+        <v>228.9454912337969</v>
       </c>
       <c r="C5" t="n">
-        <v>180.6797906005179</v>
+        <v>180.1239857166422</v>
       </c>
       <c r="D5" t="n">
-        <v>52.7866634406403</v>
+        <v>48.82150551715469</v>
       </c>
       <c r="E5" t="n">
-        <v>218.4664540411582</v>
+        <v>213.9454912337969</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>203.1635611673141</v>
+        <v>244.816591482558</v>
       </c>
       <c r="C6" t="n">
-        <v>207.195393686957</v>
+        <v>201.8350366033488</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.031832519642904</v>
+        <v>42.98155487920928</v>
       </c>
       <c r="E6" t="n">
-        <v>207.195393686957</v>
+        <v>229.816591482558</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>227.3778088411827</v>
+        <v>233.2617757888844</v>
       </c>
       <c r="C7" t="n">
-        <v>195.0357903410335</v>
+        <v>205.2483650082235</v>
       </c>
       <c r="D7" t="n">
-        <v>32.34201850014927</v>
+        <v>28.01341078066088</v>
       </c>
       <c r="E7" t="n">
-        <v>212.3778088411827</v>
+        <v>218.2617757888844</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -604,19 +604,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>222.8984497902253</v>
+        <v>225.8911906266305</v>
       </c>
       <c r="C8" t="n">
-        <v>215.6177371676207</v>
+        <v>201.5233850592682</v>
       </c>
       <c r="D8" t="n">
-        <v>7.280712622604625</v>
+        <v>24.36780556736238</v>
       </c>
       <c r="E8" t="n">
-        <v>215.6177371676207</v>
+        <v>210.8911906266305</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>240.6484182040343</v>
+        <v>215.6170785007997</v>
       </c>
       <c r="C9" t="n">
-        <v>203.8906593914141</v>
+        <v>206.5430683464788</v>
       </c>
       <c r="D9" t="n">
-        <v>36.75775881262021</v>
+        <v>9.074010154320916</v>
       </c>
       <c r="E9" t="n">
-        <v>225.6484182040343</v>
+        <v>206.5430683464788</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>207.8346836420983</v>
+        <v>219.8037279700016</v>
       </c>
       <c r="C10" t="n">
-        <v>209.9814719939691</v>
+        <v>189.8547661063786</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.146788351870754</v>
+        <v>29.948961863623</v>
       </c>
       <c r="E10" t="n">
-        <v>209.9814719939691</v>
+        <v>204.8037279700016</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>201.6862718208116</v>
+        <v>208.3733386508239</v>
       </c>
       <c r="C11" t="n">
-        <v>201.5339352488677</v>
+        <v>228.69626610486</v>
       </c>
       <c r="D11" t="n">
-        <v>0.152336571943863</v>
+        <v>-20.32292745403615</v>
       </c>
       <c r="E11" t="n">
-        <v>201.5339352488677</v>
+        <v>228.69626610486</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>

--- a/output/results/pressure_calculation/pressure_calculation_results.xlsx
+++ b/output/results/pressure_calculation/pressure_calculation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Boundary_Applied</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Diffusivity_Pressure</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,20 +477,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>225.4979637236889</v>
+        <v>246.764970144766</v>
       </c>
       <c r="C2" t="n">
-        <v>192.9599402317299</v>
+        <v>181.5150453311255</v>
       </c>
       <c r="D2" t="n">
-        <v>32.538023491959</v>
+        <v>65.24992481364052</v>
       </c>
       <c r="E2" t="n">
-        <v>210.4979637236889</v>
+        <v>231.764970144766</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
+      <c r="G2" t="n">
+        <v>248.3497004189754</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -494,19 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>232.2877678366567</v>
+        <v>217.0336452784793</v>
       </c>
       <c r="C3" t="n">
-        <v>229.6463687017024</v>
+        <v>199.1920685601137</v>
       </c>
       <c r="D3" t="n">
-        <v>2.641399134954241</v>
+        <v>17.84157671836564</v>
       </c>
       <c r="E3" t="n">
-        <v>229.6463687017024</v>
+        <v>202.0336452784793</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>248.3497004189754</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8082197568496</v>
+        <v>219.5933175347968</v>
       </c>
       <c r="C4" t="n">
-        <v>208.2751646997562</v>
+        <v>191.1166021712214</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.46694494290665</v>
+        <v>28.47671536357535</v>
       </c>
       <c r="E4" t="n">
-        <v>208.2751646997562</v>
+        <v>204.5933175347968</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>248.3497004189754</v>
       </c>
     </row>
     <row r="5">
@@ -538,19 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228.9454912337969</v>
+        <v>206.4928996373361</v>
       </c>
       <c r="C5" t="n">
-        <v>180.1239857166422</v>
+        <v>201.1708477223052</v>
       </c>
       <c r="D5" t="n">
-        <v>48.82150551715469</v>
+        <v>5.322051915030869</v>
       </c>
       <c r="E5" t="n">
-        <v>213.9454912337969</v>
+        <v>201.1708477223052</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>248.3497004189754</v>
       </c>
     </row>
     <row r="6">
@@ -560,20 +577,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>244.816591482558</v>
+        <v>209.0464864939379</v>
       </c>
       <c r="C6" t="n">
-        <v>201.8350366033488</v>
+        <v>180.0241806025757</v>
       </c>
       <c r="D6" t="n">
-        <v>42.98155487920928</v>
+        <v>29.02230589136221</v>
       </c>
       <c r="E6" t="n">
-        <v>229.816591482558</v>
+        <v>194.0464864939379</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
+      <c r="G6" t="n">
+        <v>248.3497004189754</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -582,20 +602,23 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>233.2617757888844</v>
+        <v>237.1332612683818</v>
       </c>
       <c r="C7" t="n">
-        <v>205.2483650082235</v>
+        <v>217.8679032848748</v>
       </c>
       <c r="D7" t="n">
-        <v>28.01341078066088</v>
+        <v>19.26535798350699</v>
       </c>
       <c r="E7" t="n">
-        <v>218.2617757888844</v>
+        <v>222.1332612683818</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
+      <c r="G7" t="n">
+        <v>248.3497004189754</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -604,20 +627,23 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.8911906266305</v>
+        <v>231.8836493314376</v>
       </c>
       <c r="C8" t="n">
-        <v>201.5233850592682</v>
+        <v>192.829458799071</v>
       </c>
       <c r="D8" t="n">
-        <v>24.36780556736238</v>
+        <v>39.05419053236662</v>
       </c>
       <c r="E8" t="n">
-        <v>210.8911906266305</v>
+        <v>216.8836493314376</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
+      <c r="G8" t="n">
+        <v>248.3497004189754</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -626,19 +652,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>215.6170785007997</v>
+        <v>219.5465280520848</v>
       </c>
       <c r="C9" t="n">
-        <v>206.5430683464788</v>
+        <v>187.6473592943935</v>
       </c>
       <c r="D9" t="n">
-        <v>9.074010154320916</v>
+        <v>31.89916875769134</v>
       </c>
       <c r="E9" t="n">
-        <v>206.5430683464788</v>
+        <v>204.5465280520848</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>248.3497004189754</v>
       </c>
     </row>
     <row r="10">
@@ -648,19 +677,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>219.8037279700016</v>
+        <v>208.3029323774192</v>
       </c>
       <c r="C10" t="n">
-        <v>189.8547661063786</v>
+        <v>211.4293246328534</v>
       </c>
       <c r="D10" t="n">
-        <v>29.948961863623</v>
+        <v>-3.126392255434126</v>
       </c>
       <c r="E10" t="n">
-        <v>204.8037279700016</v>
+        <v>211.4293246328534</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>248.3497004189754</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +702,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>208.3733386508239</v>
+        <v>239.3385851314313</v>
       </c>
       <c r="C11" t="n">
-        <v>228.69626610486</v>
+        <v>223.350607012967</v>
       </c>
       <c r="D11" t="n">
-        <v>-20.32292745403615</v>
+        <v>15.98797811846435</v>
       </c>
       <c r="E11" t="n">
-        <v>228.69626610486</v>
+        <v>224.3385851314313</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>248.3497004189754</v>
       </c>
     </row>
   </sheetData>
